--- a/Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/Financials/Yearly/SKM_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F752B-D219-4F63-944F-FDDE37B36C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKM" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15768000</v>
+        <v>14849100</v>
       </c>
       <c r="E8" s="3">
-        <v>15382600</v>
+        <v>15417600</v>
       </c>
       <c r="F8" s="3">
-        <v>15423100</v>
+        <v>15040800</v>
       </c>
       <c r="G8" s="3">
-        <v>15490300</v>
+        <v>15080300</v>
       </c>
       <c r="H8" s="3">
-        <v>15002100</v>
+        <v>15146100</v>
       </c>
       <c r="I8" s="3">
-        <v>14851700</v>
+        <v>14668700</v>
       </c>
       <c r="J8" s="3">
+        <v>14521700</v>
+      </c>
+      <c r="K8" s="3">
         <v>14378600</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>787500</v>
+        <v>711400</v>
       </c>
       <c r="E9" s="3">
-        <v>858800</v>
+        <v>770000</v>
       </c>
       <c r="F9" s="3">
-        <v>861800</v>
+        <v>839800</v>
       </c>
       <c r="G9" s="3">
-        <v>1256700</v>
+        <v>842700</v>
       </c>
       <c r="H9" s="3">
-        <v>1343300</v>
+        <v>1228800</v>
       </c>
       <c r="I9" s="3">
-        <v>1167500</v>
+        <v>1313500</v>
       </c>
       <c r="J9" s="3">
+        <v>1141500</v>
+      </c>
+      <c r="K9" s="3">
         <v>863300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14980500</v>
+        <v>14137700</v>
       </c>
       <c r="E10" s="3">
-        <v>14523800</v>
+        <v>14647600</v>
       </c>
       <c r="F10" s="3">
-        <v>14561200</v>
+        <v>14201000</v>
       </c>
       <c r="G10" s="3">
-        <v>14233600</v>
+        <v>14237600</v>
       </c>
       <c r="H10" s="3">
-        <v>13658800</v>
+        <v>13917300</v>
       </c>
       <c r="I10" s="3">
-        <v>13684200</v>
+        <v>13355300</v>
       </c>
       <c r="J10" s="3">
+        <v>13380100</v>
+      </c>
+      <c r="K10" s="3">
         <v>13515200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>355700</v>
+        <v>341200</v>
       </c>
       <c r="E12" s="3">
-        <v>310300</v>
+        <v>347800</v>
       </c>
       <c r="F12" s="3">
-        <v>284200</v>
+        <v>303400</v>
       </c>
       <c r="G12" s="3">
-        <v>351800</v>
+        <v>277900</v>
       </c>
       <c r="H12" s="3">
-        <v>317100</v>
+        <v>344000</v>
       </c>
       <c r="I12" s="3">
-        <v>274100</v>
+        <v>310100</v>
       </c>
       <c r="J12" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K12" s="3">
         <v>244200</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>61700</v>
+        <v>227900</v>
       </c>
       <c r="E14" s="3">
-        <v>22100</v>
+        <v>60300</v>
       </c>
       <c r="F14" s="3">
-        <v>32300</v>
+        <v>21600</v>
       </c>
       <c r="G14" s="3">
-        <v>42700</v>
+        <v>31500</v>
       </c>
       <c r="H14" s="3">
-        <v>12400</v>
+        <v>41800</v>
       </c>
       <c r="I14" s="3">
-        <v>35900</v>
+        <v>12100</v>
       </c>
       <c r="J14" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K14" s="3">
         <v>2700</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2787700</v>
+        <v>2751000</v>
       </c>
       <c r="E15" s="3">
-        <v>2647700</v>
+        <v>2725800</v>
       </c>
       <c r="F15" s="3">
-        <v>2560800</v>
+        <v>2588900</v>
       </c>
       <c r="G15" s="3">
-        <v>2443300</v>
+        <v>2503900</v>
       </c>
       <c r="H15" s="3">
-        <v>2395500</v>
+        <v>2389000</v>
       </c>
       <c r="I15" s="3">
-        <v>2189100</v>
+        <v>2342200</v>
       </c>
       <c r="J15" s="3">
+        <v>2140400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2066800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14446800</v>
+        <v>14019500</v>
       </c>
       <c r="E17" s="3">
-        <v>14022500</v>
+        <v>14125700</v>
       </c>
       <c r="F17" s="3">
-        <v>13918100</v>
+        <v>13710900</v>
       </c>
       <c r="G17" s="3">
-        <v>14043300</v>
+        <v>13608800</v>
       </c>
       <c r="H17" s="3">
-        <v>13581600</v>
+        <v>13731200</v>
       </c>
       <c r="I17" s="3">
-        <v>13264000</v>
+        <v>13279700</v>
       </c>
       <c r="J17" s="3">
+        <v>12969200</v>
+      </c>
+      <c r="K17" s="3">
         <v>12408200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1321300</v>
+        <v>829600</v>
       </c>
       <c r="E18" s="3">
-        <v>1360100</v>
+        <v>1291900</v>
       </c>
       <c r="F18" s="3">
-        <v>1504900</v>
+        <v>1329900</v>
       </c>
       <c r="G18" s="3">
-        <v>1447000</v>
+        <v>1471500</v>
       </c>
       <c r="H18" s="3">
-        <v>1420600</v>
+        <v>1414900</v>
       </c>
       <c r="I18" s="3">
-        <v>1587700</v>
+        <v>1389000</v>
       </c>
       <c r="J18" s="3">
+        <v>1552500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1970400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2010900</v>
+        <v>2939700</v>
       </c>
       <c r="E20" s="3">
-        <v>787800</v>
+        <v>1966200</v>
       </c>
       <c r="F20" s="3">
-        <v>594800</v>
+        <v>770300</v>
       </c>
       <c r="G20" s="3">
-        <v>872900</v>
+        <v>581600</v>
       </c>
       <c r="H20" s="3">
-        <v>522500</v>
+        <v>853500</v>
       </c>
       <c r="I20" s="3">
-        <v>179200</v>
+        <v>510900</v>
       </c>
       <c r="J20" s="3">
+        <v>175200</v>
+      </c>
+      <c r="K20" s="3">
         <v>623100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6222400</v>
+        <v>6659500</v>
       </c>
       <c r="E21" s="3">
-        <v>4879000</v>
+        <v>6115900</v>
       </c>
       <c r="F21" s="3">
-        <v>4763900</v>
+        <v>4800500</v>
       </c>
       <c r="G21" s="3">
-        <v>4893700</v>
+        <v>4687300</v>
       </c>
       <c r="H21" s="3">
-        <v>4461500</v>
+        <v>4813300</v>
       </c>
       <c r="I21" s="3">
-        <v>4092500</v>
+        <v>4390100</v>
       </c>
       <c r="J21" s="3">
+        <v>4027100</v>
+      </c>
+      <c r="K21" s="3">
         <v>4803100</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>269200</v>
+        <v>270400</v>
       </c>
       <c r="E22" s="3">
-        <v>261400</v>
+        <v>263200</v>
       </c>
       <c r="F22" s="3">
-        <v>267900</v>
+        <v>255600</v>
       </c>
       <c r="G22" s="3">
-        <v>291500</v>
+        <v>261900</v>
       </c>
       <c r="H22" s="3">
-        <v>298700</v>
+        <v>285000</v>
       </c>
       <c r="I22" s="3">
-        <v>371100</v>
+        <v>292000</v>
       </c>
       <c r="J22" s="3">
+        <v>362900</v>
+      </c>
+      <c r="K22" s="3">
         <v>576900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3062900</v>
+        <v>3498900</v>
       </c>
       <c r="E23" s="3">
-        <v>1886500</v>
+        <v>2994900</v>
       </c>
       <c r="F23" s="3">
-        <v>1831800</v>
+        <v>1844600</v>
       </c>
       <c r="G23" s="3">
-        <v>2028400</v>
+        <v>1791100</v>
       </c>
       <c r="H23" s="3">
-        <v>1644400</v>
+        <v>1983400</v>
       </c>
       <c r="I23" s="3">
-        <v>1395800</v>
+        <v>1607800</v>
       </c>
       <c r="J23" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2016600</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>671100</v>
+        <v>742700</v>
       </c>
       <c r="E24" s="3">
-        <v>392400</v>
+        <v>656200</v>
       </c>
       <c r="F24" s="3">
-        <v>467500</v>
+        <v>383700</v>
       </c>
       <c r="G24" s="3">
-        <v>409100</v>
+        <v>457100</v>
       </c>
       <c r="H24" s="3">
-        <v>360700</v>
+        <v>400000</v>
       </c>
       <c r="I24" s="3">
-        <v>266300</v>
+        <v>352700</v>
       </c>
       <c r="J24" s="3">
+        <v>260400</v>
+      </c>
+      <c r="K24" s="3">
         <v>548100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2391800</v>
+        <v>2756100</v>
       </c>
       <c r="E26" s="3">
-        <v>1494100</v>
+        <v>2338700</v>
       </c>
       <c r="F26" s="3">
-        <v>1364300</v>
+        <v>1460900</v>
       </c>
       <c r="G26" s="3">
-        <v>1619400</v>
+        <v>1334000</v>
       </c>
       <c r="H26" s="3">
-        <v>1283700</v>
+        <v>1583400</v>
       </c>
       <c r="I26" s="3">
-        <v>1129500</v>
+        <v>1255100</v>
       </c>
       <c r="J26" s="3">
+        <v>1104400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1468600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2324700</v>
+        <v>2738600</v>
       </c>
       <c r="E27" s="3">
-        <v>1493200</v>
+        <v>2273000</v>
       </c>
       <c r="F27" s="3">
-        <v>1351600</v>
+        <v>1460000</v>
       </c>
       <c r="G27" s="3">
-        <v>1605900</v>
+        <v>1321600</v>
       </c>
       <c r="H27" s="3">
-        <v>1302600</v>
+        <v>1570200</v>
       </c>
       <c r="I27" s="3">
-        <v>1179400</v>
+        <v>1273600</v>
       </c>
       <c r="J27" s="3">
+        <v>1153200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1496300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1241,21 +1336,24 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>164900</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-142900</v>
+        <v>161300</v>
       </c>
       <c r="J29" s="3">
+        <v>-139700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-45200</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2010900</v>
+        <v>-2939700</v>
       </c>
       <c r="E32" s="3">
-        <v>-787800</v>
+        <v>-1966200</v>
       </c>
       <c r="F32" s="3">
-        <v>-594800</v>
+        <v>-770300</v>
       </c>
       <c r="G32" s="3">
-        <v>-872900</v>
+        <v>-581600</v>
       </c>
       <c r="H32" s="3">
-        <v>-522500</v>
+        <v>-853500</v>
       </c>
       <c r="I32" s="3">
-        <v>-179200</v>
+        <v>-510900</v>
       </c>
       <c r="J32" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-623100</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2324700</v>
+        <v>2738600</v>
       </c>
       <c r="E33" s="3">
-        <v>1493200</v>
+        <v>2273000</v>
       </c>
       <c r="F33" s="3">
-        <v>1351600</v>
+        <v>1460000</v>
       </c>
       <c r="G33" s="3">
-        <v>1605900</v>
+        <v>1321600</v>
       </c>
       <c r="H33" s="3">
-        <v>1467500</v>
+        <v>1570200</v>
       </c>
       <c r="I33" s="3">
-        <v>1036500</v>
+        <v>1434900</v>
       </c>
       <c r="J33" s="3">
+        <v>1013500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1451100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2324700</v>
+        <v>2738600</v>
       </c>
       <c r="E35" s="3">
-        <v>1493200</v>
+        <v>2273000</v>
       </c>
       <c r="F35" s="3">
-        <v>1351600</v>
+        <v>1460000</v>
       </c>
       <c r="G35" s="3">
-        <v>1605900</v>
+        <v>1321600</v>
       </c>
       <c r="H35" s="3">
-        <v>1467500</v>
+        <v>1570200</v>
       </c>
       <c r="I35" s="3">
-        <v>1036500</v>
+        <v>1434900</v>
       </c>
       <c r="J35" s="3">
+        <v>1013500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1451100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1312000</v>
+        <v>1325900</v>
       </c>
       <c r="E41" s="3">
-        <v>1354700</v>
+        <v>1282800</v>
       </c>
       <c r="F41" s="3">
-        <v>692000</v>
+        <v>1324600</v>
       </c>
       <c r="G41" s="3">
-        <v>751000</v>
+        <v>676700</v>
       </c>
       <c r="H41" s="3">
-        <v>1258800</v>
+        <v>734300</v>
       </c>
       <c r="I41" s="3">
-        <v>828100</v>
+        <v>1230800</v>
       </c>
       <c r="J41" s="3">
+        <v>809700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1485700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>604200</v>
+        <v>1021900</v>
       </c>
       <c r="E42" s="3">
-        <v>437300</v>
+        <v>590800</v>
       </c>
       <c r="F42" s="3">
-        <v>630800</v>
+        <v>427600</v>
       </c>
       <c r="G42" s="3">
-        <v>533900</v>
+        <v>616800</v>
       </c>
       <c r="H42" s="3">
-        <v>375800</v>
+        <v>522000</v>
       </c>
       <c r="I42" s="3">
-        <v>517100</v>
+        <v>367400</v>
       </c>
       <c r="J42" s="3">
+        <v>505600</v>
+      </c>
+      <c r="K42" s="3">
         <v>967000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3108300</v>
+        <v>2729500</v>
       </c>
       <c r="E43" s="3">
-        <v>3081700</v>
+        <v>3039200</v>
       </c>
       <c r="F43" s="3">
-        <v>2774900</v>
+        <v>3013200</v>
       </c>
       <c r="G43" s="3">
-        <v>2841500</v>
+        <v>2713300</v>
       </c>
       <c r="H43" s="3">
-        <v>2682300</v>
+        <v>2778300</v>
       </c>
       <c r="I43" s="3">
-        <v>2359700</v>
+        <v>2622700</v>
       </c>
       <c r="J43" s="3">
+        <v>2307300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2549200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>245200</v>
+        <v>253500</v>
       </c>
       <c r="E44" s="3">
-        <v>233900</v>
+        <v>239700</v>
       </c>
       <c r="F44" s="3">
-        <v>246200</v>
+        <v>228700</v>
       </c>
       <c r="G44" s="3">
-        <v>240900</v>
+        <v>240700</v>
       </c>
       <c r="H44" s="3">
-        <v>159400</v>
+        <v>235500</v>
       </c>
       <c r="I44" s="3">
-        <v>217900</v>
+        <v>155900</v>
       </c>
       <c r="J44" s="3">
+        <v>213100</v>
+      </c>
+      <c r="K44" s="3">
         <v>197600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>312000</v>
+        <v>1673000</v>
       </c>
       <c r="E45" s="3">
-        <v>289400</v>
+        <v>305100</v>
       </c>
       <c r="F45" s="3">
-        <v>300300</v>
+        <v>283000</v>
       </c>
       <c r="G45" s="3">
-        <v>207600</v>
+        <v>293600</v>
       </c>
       <c r="H45" s="3">
-        <v>134800</v>
+        <v>203000</v>
       </c>
       <c r="I45" s="3">
-        <v>842100</v>
+        <v>131800</v>
       </c>
       <c r="J45" s="3">
+        <v>823400</v>
+      </c>
+      <c r="K45" s="3">
         <v>306200</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5581600</v>
+        <v>7003800</v>
       </c>
       <c r="E46" s="3">
-        <v>5397000</v>
+        <v>5457600</v>
       </c>
       <c r="F46" s="3">
-        <v>4644200</v>
+        <v>5277000</v>
       </c>
       <c r="G46" s="3">
-        <v>4574800</v>
+        <v>4541000</v>
       </c>
       <c r="H46" s="3">
-        <v>4611100</v>
+        <v>4473200</v>
       </c>
       <c r="I46" s="3">
-        <v>4765000</v>
+        <v>4508600</v>
       </c>
       <c r="J46" s="3">
+        <v>4659100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5505700</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9698500</v>
+        <v>12174500</v>
       </c>
       <c r="E47" s="3">
-        <v>7603200</v>
+        <v>9483000</v>
       </c>
       <c r="F47" s="3">
-        <v>7351600</v>
+        <v>7434200</v>
       </c>
       <c r="G47" s="3">
-        <v>6582900</v>
+        <v>7188200</v>
       </c>
       <c r="H47" s="3">
-        <v>5723500</v>
+        <v>6436600</v>
       </c>
       <c r="I47" s="3">
-        <v>5090100</v>
+        <v>5596300</v>
       </c>
       <c r="J47" s="3">
+        <v>4977000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2728000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9130400</v>
+        <v>9432200</v>
       </c>
       <c r="E48" s="3">
-        <v>9336800</v>
+        <v>8927500</v>
       </c>
       <c r="F48" s="3">
-        <v>9347700</v>
+        <v>9129300</v>
       </c>
       <c r="G48" s="3">
-        <v>9524400</v>
+        <v>9140000</v>
       </c>
       <c r="H48" s="3">
-        <v>9191200</v>
+        <v>9312800</v>
       </c>
       <c r="I48" s="3">
-        <v>8877400</v>
+        <v>8986900</v>
       </c>
       <c r="J48" s="3">
+        <v>8680200</v>
+      </c>
+      <c r="K48" s="3">
         <v>8373600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4951800</v>
+        <v>7437800</v>
       </c>
       <c r="E49" s="3">
-        <v>5137900</v>
+        <v>4841700</v>
       </c>
       <c r="F49" s="3">
-        <v>3792000</v>
+        <v>5023700</v>
       </c>
       <c r="G49" s="3">
-        <v>3961400</v>
+        <v>3707800</v>
       </c>
       <c r="H49" s="3">
-        <v>4035600</v>
+        <v>3873400</v>
       </c>
       <c r="I49" s="3">
-        <v>3990700</v>
+        <v>3946000</v>
       </c>
       <c r="J49" s="3">
+        <v>3902000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4271200</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>723500</v>
+        <v>1236500</v>
       </c>
       <c r="E52" s="3">
-        <v>693000</v>
+        <v>707400</v>
       </c>
       <c r="F52" s="3">
-        <v>587700</v>
+        <v>677600</v>
       </c>
       <c r="G52" s="3">
-        <v>503500</v>
+        <v>574700</v>
       </c>
       <c r="H52" s="3">
-        <v>357500</v>
+        <v>492300</v>
       </c>
       <c r="I52" s="3">
-        <v>312800</v>
+        <v>349600</v>
       </c>
       <c r="J52" s="3">
+        <v>305800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1050900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30085800</v>
+        <v>37284800</v>
       </c>
       <c r="E54" s="3">
-        <v>28167900</v>
+        <v>29417200</v>
       </c>
       <c r="F54" s="3">
-        <v>25723200</v>
+        <v>27541900</v>
       </c>
       <c r="G54" s="3">
-        <v>25147100</v>
+        <v>25151600</v>
       </c>
       <c r="H54" s="3">
-        <v>23918900</v>
+        <v>24588300</v>
       </c>
       <c r="I54" s="3">
-        <v>23036000</v>
+        <v>23387300</v>
       </c>
       <c r="J54" s="3">
+        <v>22524100</v>
+      </c>
+      <c r="K54" s="3">
         <v>21929400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>316500</v>
+        <v>335500</v>
       </c>
       <c r="E57" s="3">
-        <v>362200</v>
+        <v>309500</v>
       </c>
       <c r="F57" s="3">
-        <v>251800</v>
+        <v>354200</v>
       </c>
       <c r="G57" s="3">
-        <v>247900</v>
+        <v>246200</v>
       </c>
       <c r="H57" s="3">
-        <v>193200</v>
+        <v>242400</v>
       </c>
       <c r="I57" s="3">
-        <v>1858400</v>
+        <v>189000</v>
       </c>
       <c r="J57" s="3">
+        <v>1817100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1532900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1494900</v>
+        <v>936600</v>
       </c>
       <c r="E58" s="3">
-        <v>802000</v>
+        <v>1461600</v>
       </c>
       <c r="F58" s="3">
-        <v>866800</v>
+        <v>784200</v>
       </c>
       <c r="G58" s="3">
-        <v>865000</v>
+        <v>847500</v>
       </c>
       <c r="H58" s="3">
-        <v>1375600</v>
+        <v>845800</v>
       </c>
       <c r="I58" s="3">
-        <v>1343800</v>
+        <v>1345000</v>
       </c>
       <c r="J58" s="3">
+        <v>1313900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2127200</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4586800</v>
+        <v>4753700</v>
       </c>
       <c r="E59" s="3">
-        <v>4635500</v>
+        <v>4484900</v>
       </c>
       <c r="F59" s="3">
-        <v>3612200</v>
+        <v>4532500</v>
       </c>
       <c r="G59" s="3">
-        <v>3765300</v>
+        <v>3532000</v>
       </c>
       <c r="H59" s="3">
-        <v>3893500</v>
+        <v>3681700</v>
       </c>
       <c r="I59" s="3">
-        <v>2355200</v>
+        <v>3806900</v>
       </c>
       <c r="J59" s="3">
+        <v>2302800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2346100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6398200</v>
+        <v>6025900</v>
       </c>
       <c r="E60" s="3">
-        <v>5799700</v>
+        <v>6256000</v>
       </c>
       <c r="F60" s="3">
-        <v>4730800</v>
+        <v>5670800</v>
       </c>
       <c r="G60" s="3">
-        <v>4878300</v>
+        <v>4625700</v>
       </c>
       <c r="H60" s="3">
-        <v>5462300</v>
+        <v>4769900</v>
       </c>
       <c r="I60" s="3">
-        <v>5557400</v>
+        <v>5340900</v>
       </c>
       <c r="J60" s="3">
+        <v>5433900</v>
+      </c>
+      <c r="K60" s="3">
         <v>6006200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5227300</v>
+        <v>7557100</v>
       </c>
       <c r="E61" s="3">
-        <v>5830800</v>
+        <v>5111100</v>
       </c>
       <c r="F61" s="3">
-        <v>5904600</v>
+        <v>5701200</v>
       </c>
       <c r="G61" s="3">
-        <v>5219000</v>
+        <v>5773400</v>
       </c>
       <c r="H61" s="3">
-        <v>4512800</v>
+        <v>5103000</v>
       </c>
       <c r="I61" s="3">
-        <v>4833400</v>
+        <v>4412500</v>
       </c>
       <c r="J61" s="3">
+        <v>4726000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3235300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2234100</v>
+        <v>4034600</v>
       </c>
       <c r="E62" s="3">
-        <v>2032600</v>
+        <v>2184400</v>
       </c>
       <c r="F62" s="3">
-        <v>1251100</v>
+        <v>1987500</v>
       </c>
       <c r="G62" s="3">
-        <v>1326400</v>
+        <v>1223300</v>
       </c>
       <c r="H62" s="3">
-        <v>1193800</v>
+        <v>1296900</v>
       </c>
       <c r="I62" s="3">
-        <v>1075900</v>
+        <v>1167300</v>
       </c>
       <c r="J62" s="3">
+        <v>1051900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1228400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14027900</v>
+        <v>17510500</v>
       </c>
       <c r="E66" s="3">
-        <v>13793600</v>
+        <v>13716100</v>
       </c>
       <c r="F66" s="3">
-        <v>11997300</v>
+        <v>13487100</v>
       </c>
       <c r="G66" s="3">
-        <v>12091000</v>
+        <v>11730700</v>
       </c>
       <c r="H66" s="3">
-        <v>11811700</v>
+        <v>11822400</v>
       </c>
       <c r="I66" s="3">
-        <v>12366700</v>
+        <v>11549200</v>
       </c>
       <c r="J66" s="3">
+        <v>12091900</v>
+      </c>
+      <c r="K66" s="3">
         <v>11433700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16052400</v>
+        <v>19487200</v>
       </c>
       <c r="E72" s="3">
-        <v>14357800</v>
+        <v>15695600</v>
       </c>
       <c r="F72" s="3">
-        <v>13506900</v>
+        <v>14038800</v>
       </c>
       <c r="G72" s="3">
-        <v>12769700</v>
+        <v>13206700</v>
       </c>
       <c r="H72" s="3">
-        <v>11792200</v>
+        <v>12486000</v>
       </c>
       <c r="I72" s="3">
-        <v>10889100</v>
+        <v>11530200</v>
       </c>
       <c r="J72" s="3">
+        <v>10647100</v>
+      </c>
+      <c r="K72" s="3">
         <v>10712300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16057900</v>
+        <v>19774300</v>
       </c>
       <c r="E76" s="3">
-        <v>14374300</v>
+        <v>15701100</v>
       </c>
       <c r="F76" s="3">
-        <v>13726000</v>
+        <v>14054800</v>
       </c>
       <c r="G76" s="3">
-        <v>13056100</v>
+        <v>13420900</v>
       </c>
       <c r="H76" s="3">
-        <v>12107100</v>
+        <v>12765900</v>
       </c>
       <c r="I76" s="3">
-        <v>10669300</v>
+        <v>11838100</v>
       </c>
       <c r="J76" s="3">
+        <v>10432200</v>
+      </c>
+      <c r="K76" s="3">
         <v>10495700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2324700</v>
+        <v>2738600</v>
       </c>
       <c r="E81" s="3">
-        <v>1493200</v>
+        <v>2273000</v>
       </c>
       <c r="F81" s="3">
-        <v>1351600</v>
+        <v>1460000</v>
       </c>
       <c r="G81" s="3">
-        <v>1605900</v>
+        <v>1321600</v>
       </c>
       <c r="H81" s="3">
-        <v>1467500</v>
+        <v>1570200</v>
       </c>
       <c r="I81" s="3">
-        <v>1036500</v>
+        <v>1434900</v>
       </c>
       <c r="J81" s="3">
+        <v>1013500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1451100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2922800</v>
+        <v>2890200</v>
       </c>
       <c r="E83" s="3">
-        <v>2761700</v>
+        <v>2857800</v>
       </c>
       <c r="F83" s="3">
-        <v>2694100</v>
+        <v>2700300</v>
       </c>
       <c r="G83" s="3">
-        <v>2602700</v>
+        <v>2634300</v>
       </c>
       <c r="H83" s="3">
-        <v>2546800</v>
+        <v>2544800</v>
       </c>
       <c r="I83" s="3">
-        <v>2351700</v>
+        <v>2490200</v>
       </c>
       <c r="J83" s="3">
+        <v>2299500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2234400</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3470200</v>
+        <v>3812700</v>
       </c>
       <c r="E89" s="3">
-        <v>3818900</v>
+        <v>3393100</v>
       </c>
       <c r="F89" s="3">
-        <v>3400300</v>
+        <v>3734000</v>
       </c>
       <c r="G89" s="3">
-        <v>3309600</v>
+        <v>3324800</v>
       </c>
       <c r="H89" s="3">
-        <v>3202700</v>
+        <v>3236100</v>
       </c>
       <c r="I89" s="3">
-        <v>3599700</v>
+        <v>3131500</v>
       </c>
       <c r="J89" s="3">
+        <v>3519700</v>
+      </c>
+      <c r="K89" s="3">
         <v>5675800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2575400</v>
+        <v>-2457300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2813300</v>
+        <v>-2390000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2346100</v>
+        <v>-2191600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2824800</v>
+        <v>-2181300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2810100</v>
+        <v>-2647100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3186700</v>
+        <v>-2533600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2987100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3280800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2763500</v>
+        <v>-3562000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2216000</v>
+        <v>-2702100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2592400</v>
+        <v>-2166700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3314800</v>
+        <v>-2534800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2255800</v>
+        <v>-3241200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4778600</v>
+        <v>-2205700</v>
       </c>
       <c r="J94" s="3">
+        <v>-4672400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3815200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-635500</v>
+        <v>-621400</v>
       </c>
       <c r="E96" s="3">
-        <v>-635500</v>
+        <v>-621400</v>
       </c>
       <c r="F96" s="3">
-        <v>-601600</v>
+        <v>-621400</v>
       </c>
       <c r="G96" s="3">
-        <v>-600100</v>
+        <v>-588300</v>
       </c>
       <c r="H96" s="3">
-        <v>-590400</v>
+        <v>-586800</v>
       </c>
       <c r="I96" s="3">
-        <v>-589600</v>
+        <v>-577200</v>
       </c>
       <c r="J96" s="3">
+        <v>-576500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-601500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-744000</v>
+        <v>-209700</v>
       </c>
       <c r="E100" s="3">
-        <v>-940300</v>
+        <v>-727400</v>
       </c>
       <c r="F100" s="3">
-        <v>-868100</v>
+        <v>-919400</v>
       </c>
       <c r="G100" s="3">
-        <v>-503500</v>
+        <v>-848800</v>
       </c>
       <c r="H100" s="3">
-        <v>-515800</v>
+        <v>-492300</v>
       </c>
       <c r="I100" s="3">
-        <v>526700</v>
+        <v>-504400</v>
       </c>
       <c r="J100" s="3">
+        <v>515000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-971400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5500</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
-        <v>-5400</v>
-      </c>
       <c r="J101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-42800</v>
+        <v>43100</v>
       </c>
       <c r="E102" s="3">
-        <v>662700</v>
+        <v>-41800</v>
       </c>
       <c r="F102" s="3">
-        <v>-59000</v>
+        <v>648000</v>
       </c>
       <c r="G102" s="3">
-        <v>-507800</v>
+        <v>-57600</v>
       </c>
       <c r="H102" s="3">
-        <v>430700</v>
+        <v>-496500</v>
       </c>
       <c r="I102" s="3">
-        <v>-657600</v>
+        <v>421100</v>
       </c>
       <c r="J102" s="3">
+        <v>-643000</v>
+      </c>
+      <c r="K102" s="3">
         <v>892300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/SKM_YR_FIN.xlsx
+++ b/Financials/Yearly/SKM_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F752B-D219-4F63-944F-FDDE37B36C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SKM" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>SKM</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14849100</v>
+        <v>14174100</v>
       </c>
       <c r="E8" s="3">
-        <v>15417600</v>
+        <v>14716800</v>
       </c>
       <c r="F8" s="3">
-        <v>15040800</v>
+        <v>14357100</v>
       </c>
       <c r="G8" s="3">
-        <v>15080300</v>
+        <v>14394900</v>
       </c>
       <c r="H8" s="3">
-        <v>15146100</v>
+        <v>14457600</v>
       </c>
       <c r="I8" s="3">
-        <v>14668700</v>
+        <v>14002000</v>
       </c>
       <c r="J8" s="3">
-        <v>14521700</v>
+        <v>13861600</v>
       </c>
       <c r="K8" s="3">
         <v>14378600</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>711400</v>
+        <v>679100</v>
       </c>
       <c r="E9" s="3">
-        <v>770000</v>
+        <v>735000</v>
       </c>
       <c r="F9" s="3">
-        <v>839800</v>
+        <v>801600</v>
       </c>
       <c r="G9" s="3">
-        <v>842700</v>
+        <v>804400</v>
       </c>
       <c r="H9" s="3">
-        <v>1228800</v>
+        <v>1172900</v>
       </c>
       <c r="I9" s="3">
-        <v>1313500</v>
+        <v>1253800</v>
       </c>
       <c r="J9" s="3">
-        <v>1141500</v>
+        <v>1089700</v>
       </c>
       <c r="K9" s="3">
         <v>863300</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14137700</v>
+        <v>13495100</v>
       </c>
       <c r="E10" s="3">
-        <v>14647600</v>
+        <v>13981800</v>
       </c>
       <c r="F10" s="3">
-        <v>14201000</v>
+        <v>13555500</v>
       </c>
       <c r="G10" s="3">
-        <v>14237600</v>
+        <v>13590500</v>
       </c>
       <c r="H10" s="3">
-        <v>13917300</v>
+        <v>13284700</v>
       </c>
       <c r="I10" s="3">
-        <v>13355300</v>
+        <v>12748200</v>
       </c>
       <c r="J10" s="3">
-        <v>13380100</v>
+        <v>12771900</v>
       </c>
       <c r="K10" s="3">
         <v>13515200</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>341200</v>
+        <v>325600</v>
       </c>
       <c r="E12" s="3">
-        <v>347800</v>
+        <v>332000</v>
       </c>
       <c r="F12" s="3">
-        <v>303400</v>
+        <v>289600</v>
       </c>
       <c r="G12" s="3">
-        <v>277900</v>
+        <v>265300</v>
       </c>
       <c r="H12" s="3">
-        <v>344000</v>
+        <v>328400</v>
       </c>
       <c r="I12" s="3">
-        <v>310100</v>
+        <v>296000</v>
       </c>
       <c r="J12" s="3">
-        <v>268000</v>
+        <v>255800</v>
       </c>
       <c r="K12" s="3">
         <v>244200</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>227900</v>
+        <v>217600</v>
       </c>
       <c r="E14" s="3">
-        <v>60300</v>
+        <v>57600</v>
       </c>
       <c r="F14" s="3">
-        <v>21600</v>
+        <v>20600</v>
       </c>
       <c r="G14" s="3">
-        <v>31500</v>
+        <v>30100</v>
       </c>
       <c r="H14" s="3">
-        <v>41800</v>
+        <v>39900</v>
       </c>
       <c r="I14" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="J14" s="3">
-        <v>35100</v>
+        <v>33500</v>
       </c>
       <c r="K14" s="3">
         <v>2700</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2751000</v>
+        <v>2625900</v>
       </c>
       <c r="E15" s="3">
-        <v>2725800</v>
+        <v>2601900</v>
       </c>
       <c r="F15" s="3">
-        <v>2588900</v>
+        <v>2471200</v>
       </c>
       <c r="G15" s="3">
-        <v>2503900</v>
+        <v>2390000</v>
       </c>
       <c r="H15" s="3">
-        <v>2389000</v>
+        <v>2280400</v>
       </c>
       <c r="I15" s="3">
-        <v>2342200</v>
+        <v>2235800</v>
       </c>
       <c r="J15" s="3">
-        <v>2140400</v>
+        <v>2043100</v>
       </c>
       <c r="K15" s="3">
         <v>2066800</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14019500</v>
+        <v>13382200</v>
       </c>
       <c r="E17" s="3">
-        <v>14125700</v>
+        <v>13483600</v>
       </c>
       <c r="F17" s="3">
-        <v>13710900</v>
+        <v>13087700</v>
       </c>
       <c r="G17" s="3">
-        <v>13608800</v>
+        <v>12990200</v>
       </c>
       <c r="H17" s="3">
-        <v>13731200</v>
+        <v>13107100</v>
       </c>
       <c r="I17" s="3">
-        <v>13279700</v>
+        <v>12676100</v>
       </c>
       <c r="J17" s="3">
-        <v>12969200</v>
+        <v>12379700</v>
       </c>
       <c r="K17" s="3">
         <v>12408200</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>829600</v>
+        <v>791900</v>
       </c>
       <c r="E18" s="3">
-        <v>1291900</v>
+        <v>1233200</v>
       </c>
       <c r="F18" s="3">
-        <v>1329900</v>
+        <v>1269400</v>
       </c>
       <c r="G18" s="3">
-        <v>1471500</v>
+        <v>1404600</v>
       </c>
       <c r="H18" s="3">
-        <v>1414900</v>
+        <v>1350600</v>
       </c>
       <c r="I18" s="3">
-        <v>1389000</v>
+        <v>1325900</v>
       </c>
       <c r="J18" s="3">
-        <v>1552500</v>
+        <v>1481900</v>
       </c>
       <c r="K18" s="3">
         <v>1970400</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2939700</v>
+        <v>2806000</v>
       </c>
       <c r="E20" s="3">
-        <v>1966200</v>
+        <v>1876800</v>
       </c>
       <c r="F20" s="3">
-        <v>770300</v>
+        <v>735300</v>
       </c>
       <c r="G20" s="3">
-        <v>581600</v>
+        <v>555100</v>
       </c>
       <c r="H20" s="3">
-        <v>853500</v>
+        <v>814700</v>
       </c>
       <c r="I20" s="3">
-        <v>510900</v>
+        <v>487600</v>
       </c>
       <c r="J20" s="3">
-        <v>175200</v>
+        <v>167300</v>
       </c>
       <c r="K20" s="3">
         <v>623100</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6659500</v>
+        <v>6389600</v>
       </c>
       <c r="E21" s="3">
-        <v>6115900</v>
+        <v>5870400</v>
       </c>
       <c r="F21" s="3">
-        <v>4800500</v>
+        <v>4613000</v>
       </c>
       <c r="G21" s="3">
-        <v>4687300</v>
+        <v>4504200</v>
       </c>
       <c r="H21" s="3">
-        <v>4813300</v>
+        <v>4623400</v>
       </c>
       <c r="I21" s="3">
-        <v>4390100</v>
+        <v>4218800</v>
       </c>
       <c r="J21" s="3">
-        <v>4027100</v>
+        <v>3870200</v>
       </c>
       <c r="K21" s="3">
         <v>4803100</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>270400</v>
+        <v>258100</v>
       </c>
       <c r="E22" s="3">
-        <v>263200</v>
+        <v>251200</v>
       </c>
       <c r="F22" s="3">
-        <v>255600</v>
+        <v>244000</v>
       </c>
       <c r="G22" s="3">
-        <v>261900</v>
+        <v>250000</v>
       </c>
       <c r="H22" s="3">
-        <v>285000</v>
+        <v>272100</v>
       </c>
       <c r="I22" s="3">
-        <v>292000</v>
+        <v>278700</v>
       </c>
       <c r="J22" s="3">
-        <v>362900</v>
+        <v>346400</v>
       </c>
       <c r="K22" s="3">
         <v>576900</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3498900</v>
+        <v>3339800</v>
       </c>
       <c r="E23" s="3">
-        <v>2994900</v>
+        <v>2858700</v>
       </c>
       <c r="F23" s="3">
-        <v>1844600</v>
+        <v>1760800</v>
       </c>
       <c r="G23" s="3">
-        <v>1791100</v>
+        <v>1709700</v>
       </c>
       <c r="H23" s="3">
-        <v>1983400</v>
+        <v>1893200</v>
       </c>
       <c r="I23" s="3">
-        <v>1607800</v>
+        <v>1534800</v>
       </c>
       <c r="J23" s="3">
-        <v>1364800</v>
+        <v>1302700</v>
       </c>
       <c r="K23" s="3">
         <v>2016600</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>742700</v>
+        <v>708900</v>
       </c>
       <c r="E24" s="3">
-        <v>656200</v>
+        <v>626300</v>
       </c>
       <c r="F24" s="3">
-        <v>383700</v>
+        <v>366300</v>
       </c>
       <c r="G24" s="3">
-        <v>457100</v>
+        <v>436400</v>
       </c>
       <c r="H24" s="3">
-        <v>400000</v>
+        <v>381800</v>
       </c>
       <c r="I24" s="3">
-        <v>352700</v>
+        <v>336700</v>
       </c>
       <c r="J24" s="3">
-        <v>260400</v>
+        <v>248500</v>
       </c>
       <c r="K24" s="3">
         <v>548100</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2756100</v>
+        <v>2630900</v>
       </c>
       <c r="E26" s="3">
-        <v>2338700</v>
+        <v>2232400</v>
       </c>
       <c r="F26" s="3">
-        <v>1460900</v>
+        <v>1394500</v>
       </c>
       <c r="G26" s="3">
-        <v>1334000</v>
+        <v>1273300</v>
       </c>
       <c r="H26" s="3">
-        <v>1583400</v>
+        <v>1511400</v>
       </c>
       <c r="I26" s="3">
-        <v>1255100</v>
+        <v>1198100</v>
       </c>
       <c r="J26" s="3">
-        <v>1104400</v>
+        <v>1054200</v>
       </c>
       <c r="K26" s="3">
         <v>1468600</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2738600</v>
+        <v>2614200</v>
       </c>
       <c r="E27" s="3">
-        <v>2273000</v>
+        <v>2169700</v>
       </c>
       <c r="F27" s="3">
-        <v>1460000</v>
+        <v>1393700</v>
       </c>
       <c r="G27" s="3">
-        <v>1321600</v>
+        <v>1261500</v>
       </c>
       <c r="H27" s="3">
-        <v>1570200</v>
+        <v>1498800</v>
       </c>
       <c r="I27" s="3">
-        <v>1273600</v>
+        <v>1215700</v>
       </c>
       <c r="J27" s="3">
-        <v>1153200</v>
+        <v>1100800</v>
       </c>
       <c r="K27" s="3">
         <v>1496300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1343,17 +1308,17 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>161300</v>
+        <v>153900</v>
       </c>
       <c r="J29" s="3">
-        <v>-139700</v>
+        <v>-133300</v>
       </c>
       <c r="K29" s="3">
         <v>-45200</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2939700</v>
+        <v>-2806000</v>
       </c>
       <c r="E32" s="3">
-        <v>-1966200</v>
+        <v>-1876800</v>
       </c>
       <c r="F32" s="3">
-        <v>-770300</v>
+        <v>-735300</v>
       </c>
       <c r="G32" s="3">
-        <v>-581600</v>
+        <v>-555100</v>
       </c>
       <c r="H32" s="3">
-        <v>-853500</v>
+        <v>-814700</v>
       </c>
       <c r="I32" s="3">
-        <v>-510900</v>
+        <v>-487600</v>
       </c>
       <c r="J32" s="3">
-        <v>-175200</v>
+        <v>-167300</v>
       </c>
       <c r="K32" s="3">
         <v>-623100</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2738600</v>
+        <v>2614200</v>
       </c>
       <c r="E33" s="3">
-        <v>2273000</v>
+        <v>2169700</v>
       </c>
       <c r="F33" s="3">
-        <v>1460000</v>
+        <v>1393700</v>
       </c>
       <c r="G33" s="3">
-        <v>1321600</v>
+        <v>1261500</v>
       </c>
       <c r="H33" s="3">
-        <v>1570200</v>
+        <v>1498800</v>
       </c>
       <c r="I33" s="3">
-        <v>1434900</v>
+        <v>1369700</v>
       </c>
       <c r="J33" s="3">
-        <v>1013500</v>
+        <v>967400</v>
       </c>
       <c r="K33" s="3">
         <v>1451100</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2738600</v>
+        <v>2614200</v>
       </c>
       <c r="E35" s="3">
-        <v>2273000</v>
+        <v>2169700</v>
       </c>
       <c r="F35" s="3">
-        <v>1460000</v>
+        <v>1393700</v>
       </c>
       <c r="G35" s="3">
-        <v>1321600</v>
+        <v>1261500</v>
       </c>
       <c r="H35" s="3">
-        <v>1570200</v>
+        <v>1498800</v>
       </c>
       <c r="I35" s="3">
-        <v>1434900</v>
+        <v>1369700</v>
       </c>
       <c r="J35" s="3">
-        <v>1013500</v>
+        <v>967400</v>
       </c>
       <c r="K35" s="3">
         <v>1451100</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1596,277 +1561,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1325900</v>
+        <v>1265600</v>
       </c>
       <c r="E41" s="3">
-        <v>1282800</v>
+        <v>1224500</v>
       </c>
       <c r="F41" s="3">
-        <v>1324600</v>
+        <v>1264400</v>
       </c>
       <c r="G41" s="3">
-        <v>676700</v>
+        <v>645900</v>
       </c>
       <c r="H41" s="3">
-        <v>734300</v>
+        <v>700900</v>
       </c>
       <c r="I41" s="3">
-        <v>1230800</v>
+        <v>1174900</v>
       </c>
       <c r="J41" s="3">
-        <v>809700</v>
+        <v>772900</v>
       </c>
       <c r="K41" s="3">
         <v>1485700</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1021900</v>
+        <v>975400</v>
       </c>
       <c r="E42" s="3">
-        <v>590800</v>
+        <v>563900</v>
       </c>
       <c r="F42" s="3">
-        <v>427600</v>
+        <v>408100</v>
       </c>
       <c r="G42" s="3">
-        <v>616800</v>
+        <v>588700</v>
       </c>
       <c r="H42" s="3">
-        <v>522000</v>
+        <v>498300</v>
       </c>
       <c r="I42" s="3">
-        <v>367400</v>
+        <v>350700</v>
       </c>
       <c r="J42" s="3">
-        <v>505600</v>
+        <v>482600</v>
       </c>
       <c r="K42" s="3">
         <v>967000</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2729500</v>
+        <v>2605400</v>
       </c>
       <c r="E43" s="3">
-        <v>3039200</v>
+        <v>2901100</v>
       </c>
       <c r="F43" s="3">
-        <v>3013200</v>
+        <v>2876300</v>
       </c>
       <c r="G43" s="3">
-        <v>2713300</v>
+        <v>2589900</v>
       </c>
       <c r="H43" s="3">
-        <v>2778300</v>
+        <v>2652000</v>
       </c>
       <c r="I43" s="3">
-        <v>2622700</v>
+        <v>2503500</v>
       </c>
       <c r="J43" s="3">
-        <v>2307300</v>
+        <v>2202400</v>
       </c>
       <c r="K43" s="3">
         <v>2549200</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>253500</v>
+        <v>242000</v>
       </c>
       <c r="E44" s="3">
-        <v>239700</v>
+        <v>228800</v>
       </c>
       <c r="F44" s="3">
-        <v>228700</v>
+        <v>218300</v>
       </c>
       <c r="G44" s="3">
-        <v>240700</v>
+        <v>229800</v>
       </c>
       <c r="H44" s="3">
-        <v>235500</v>
+        <v>224800</v>
       </c>
       <c r="I44" s="3">
-        <v>155900</v>
+        <v>148800</v>
       </c>
       <c r="J44" s="3">
-        <v>213100</v>
+        <v>203400</v>
       </c>
       <c r="K44" s="3">
         <v>197600</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1673000</v>
+        <v>1597000</v>
       </c>
       <c r="E45" s="3">
-        <v>305100</v>
+        <v>291200</v>
       </c>
       <c r="F45" s="3">
-        <v>283000</v>
+        <v>270100</v>
       </c>
       <c r="G45" s="3">
-        <v>293600</v>
+        <v>280200</v>
       </c>
       <c r="H45" s="3">
-        <v>203000</v>
+        <v>193700</v>
       </c>
       <c r="I45" s="3">
-        <v>131800</v>
+        <v>125800</v>
       </c>
       <c r="J45" s="3">
-        <v>823400</v>
+        <v>786000</v>
       </c>
       <c r="K45" s="3">
         <v>306200</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7003800</v>
+        <v>6685400</v>
       </c>
       <c r="E46" s="3">
-        <v>5457600</v>
+        <v>5209500</v>
       </c>
       <c r="F46" s="3">
-        <v>5277000</v>
+        <v>5037200</v>
       </c>
       <c r="G46" s="3">
-        <v>4541000</v>
+        <v>4334600</v>
       </c>
       <c r="H46" s="3">
-        <v>4473200</v>
+        <v>4269800</v>
       </c>
       <c r="I46" s="3">
-        <v>4508600</v>
+        <v>4303700</v>
       </c>
       <c r="J46" s="3">
-        <v>4659100</v>
+        <v>4447300</v>
       </c>
       <c r="K46" s="3">
         <v>5505700</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12174500</v>
+        <v>11621100</v>
       </c>
       <c r="E47" s="3">
-        <v>9483000</v>
+        <v>9051900</v>
       </c>
       <c r="F47" s="3">
-        <v>7434200</v>
+        <v>7096300</v>
       </c>
       <c r="G47" s="3">
-        <v>7188200</v>
+        <v>6861500</v>
       </c>
       <c r="H47" s="3">
-        <v>6436600</v>
+        <v>6144000</v>
       </c>
       <c r="I47" s="3">
-        <v>5596300</v>
+        <v>5341900</v>
       </c>
       <c r="J47" s="3">
-        <v>4977000</v>
+        <v>4750700</v>
       </c>
       <c r="K47" s="3">
         <v>2728000</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9432200</v>
+        <v>9003400</v>
       </c>
       <c r="E48" s="3">
-        <v>8927500</v>
+        <v>8521700</v>
       </c>
       <c r="F48" s="3">
-        <v>9129300</v>
+        <v>8714300</v>
       </c>
       <c r="G48" s="3">
-        <v>9140000</v>
+        <v>8724500</v>
       </c>
       <c r="H48" s="3">
-        <v>9312800</v>
+        <v>8889500</v>
       </c>
       <c r="I48" s="3">
-        <v>8986900</v>
+        <v>8578400</v>
       </c>
       <c r="J48" s="3">
-        <v>8680200</v>
+        <v>8285600</v>
       </c>
       <c r="K48" s="3">
         <v>8373600</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7437800</v>
+        <v>7099700</v>
       </c>
       <c r="E49" s="3">
-        <v>4841700</v>
+        <v>4621700</v>
       </c>
       <c r="F49" s="3">
-        <v>5023700</v>
+        <v>4795400</v>
       </c>
       <c r="G49" s="3">
-        <v>3707800</v>
+        <v>3539200</v>
       </c>
       <c r="H49" s="3">
-        <v>3873400</v>
+        <v>3697300</v>
       </c>
       <c r="I49" s="3">
-        <v>3946000</v>
+        <v>3766600</v>
       </c>
       <c r="J49" s="3">
-        <v>3902000</v>
+        <v>3724700</v>
       </c>
       <c r="K49" s="3">
         <v>4271200</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1236500</v>
+        <v>1180300</v>
       </c>
       <c r="E52" s="3">
-        <v>707400</v>
+        <v>675300</v>
       </c>
       <c r="F52" s="3">
-        <v>677600</v>
+        <v>646800</v>
       </c>
       <c r="G52" s="3">
-        <v>574700</v>
+        <v>548500</v>
       </c>
       <c r="H52" s="3">
-        <v>492300</v>
+        <v>470000</v>
       </c>
       <c r="I52" s="3">
-        <v>349600</v>
+        <v>333700</v>
       </c>
       <c r="J52" s="3">
-        <v>305800</v>
+        <v>291900</v>
       </c>
       <c r="K52" s="3">
         <v>1050900</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37284800</v>
+        <v>35590100</v>
       </c>
       <c r="E54" s="3">
-        <v>29417200</v>
+        <v>28080100</v>
       </c>
       <c r="F54" s="3">
-        <v>27541900</v>
+        <v>26290000</v>
       </c>
       <c r="G54" s="3">
-        <v>25151600</v>
+        <v>24008400</v>
       </c>
       <c r="H54" s="3">
-        <v>24588300</v>
+        <v>23470600</v>
       </c>
       <c r="I54" s="3">
-        <v>23387300</v>
+        <v>22324300</v>
       </c>
       <c r="J54" s="3">
-        <v>22524100</v>
+        <v>21500300</v>
       </c>
       <c r="K54" s="3">
         <v>21929400</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>335500</v>
+        <v>320300</v>
       </c>
       <c r="E57" s="3">
-        <v>309500</v>
+        <v>295400</v>
       </c>
       <c r="F57" s="3">
-        <v>354200</v>
+        <v>338100</v>
       </c>
       <c r="G57" s="3">
-        <v>246200</v>
+        <v>235000</v>
       </c>
       <c r="H57" s="3">
-        <v>242400</v>
+        <v>231400</v>
       </c>
       <c r="I57" s="3">
-        <v>189000</v>
+        <v>180400</v>
       </c>
       <c r="J57" s="3">
-        <v>1817100</v>
+        <v>1734500</v>
       </c>
       <c r="K57" s="3">
         <v>1532900</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>936600</v>
+        <v>894000</v>
       </c>
       <c r="E58" s="3">
-        <v>1461600</v>
+        <v>1395200</v>
       </c>
       <c r="F58" s="3">
-        <v>784200</v>
+        <v>748500</v>
       </c>
       <c r="G58" s="3">
-        <v>847500</v>
+        <v>809000</v>
       </c>
       <c r="H58" s="3">
-        <v>845800</v>
+        <v>807300</v>
       </c>
       <c r="I58" s="3">
-        <v>1345000</v>
+        <v>1283900</v>
       </c>
       <c r="J58" s="3">
-        <v>1313900</v>
+        <v>1254200</v>
       </c>
       <c r="K58" s="3">
         <v>2127200</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4753700</v>
+        <v>4537700</v>
       </c>
       <c r="E59" s="3">
-        <v>4484900</v>
+        <v>4281000</v>
       </c>
       <c r="F59" s="3">
-        <v>4532500</v>
+        <v>4326500</v>
       </c>
       <c r="G59" s="3">
-        <v>3532000</v>
+        <v>3371400</v>
       </c>
       <c r="H59" s="3">
-        <v>3681700</v>
+        <v>3514300</v>
       </c>
       <c r="I59" s="3">
-        <v>3806900</v>
+        <v>3633900</v>
       </c>
       <c r="J59" s="3">
-        <v>2302800</v>
+        <v>2198200</v>
       </c>
       <c r="K59" s="3">
         <v>2346100</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6025900</v>
+        <v>5751900</v>
       </c>
       <c r="E60" s="3">
-        <v>6256000</v>
+        <v>5971700</v>
       </c>
       <c r="F60" s="3">
-        <v>5670800</v>
+        <v>5413000</v>
       </c>
       <c r="G60" s="3">
-        <v>4625700</v>
+        <v>4415500</v>
       </c>
       <c r="H60" s="3">
-        <v>4769900</v>
+        <v>4553100</v>
       </c>
       <c r="I60" s="3">
-        <v>5340900</v>
+        <v>5098100</v>
       </c>
       <c r="J60" s="3">
-        <v>5433900</v>
+        <v>5186900</v>
       </c>
       <c r="K60" s="3">
         <v>6006200</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7557100</v>
+        <v>7213600</v>
       </c>
       <c r="E61" s="3">
-        <v>5111100</v>
+        <v>4878800</v>
       </c>
       <c r="F61" s="3">
-        <v>5701200</v>
+        <v>5442100</v>
       </c>
       <c r="G61" s="3">
-        <v>5773400</v>
+        <v>5511000</v>
       </c>
       <c r="H61" s="3">
-        <v>5103000</v>
+        <v>4871100</v>
       </c>
       <c r="I61" s="3">
-        <v>4412500</v>
+        <v>4212000</v>
       </c>
       <c r="J61" s="3">
-        <v>4726000</v>
+        <v>4511200</v>
       </c>
       <c r="K61" s="3">
         <v>3235300</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4034600</v>
+        <v>3851200</v>
       </c>
       <c r="E62" s="3">
-        <v>2184400</v>
+        <v>2085100</v>
       </c>
       <c r="F62" s="3">
-        <v>1987500</v>
+        <v>1897100</v>
       </c>
       <c r="G62" s="3">
-        <v>1223300</v>
+        <v>1167700</v>
       </c>
       <c r="H62" s="3">
-        <v>1296900</v>
+        <v>1237900</v>
       </c>
       <c r="I62" s="3">
-        <v>1167300</v>
+        <v>1114200</v>
       </c>
       <c r="J62" s="3">
-        <v>1051900</v>
+        <v>1004100</v>
       </c>
       <c r="K62" s="3">
         <v>1228400</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17510500</v>
+        <v>16714600</v>
       </c>
       <c r="E66" s="3">
-        <v>13716100</v>
+        <v>13092700</v>
       </c>
       <c r="F66" s="3">
-        <v>13487100</v>
+        <v>12874100</v>
       </c>
       <c r="G66" s="3">
-        <v>11730700</v>
+        <v>11197500</v>
       </c>
       <c r="H66" s="3">
-        <v>11822400</v>
+        <v>11285000</v>
       </c>
       <c r="I66" s="3">
-        <v>11549200</v>
+        <v>11024300</v>
       </c>
       <c r="J66" s="3">
-        <v>12091900</v>
+        <v>11542300</v>
       </c>
       <c r="K66" s="3">
         <v>11433700</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19487200</v>
+        <v>18601400</v>
       </c>
       <c r="E72" s="3">
-        <v>15695600</v>
+        <v>14982200</v>
       </c>
       <c r="F72" s="3">
-        <v>14038800</v>
+        <v>13400700</v>
       </c>
       <c r="G72" s="3">
-        <v>13206700</v>
+        <v>12606400</v>
       </c>
       <c r="H72" s="3">
-        <v>12486000</v>
+        <v>11918400</v>
       </c>
       <c r="I72" s="3">
-        <v>11530200</v>
+        <v>11006100</v>
       </c>
       <c r="J72" s="3">
-        <v>10647100</v>
+        <v>10163200</v>
       </c>
       <c r="K72" s="3">
         <v>10712300</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19774300</v>
+        <v>18875500</v>
       </c>
       <c r="E76" s="3">
-        <v>15701100</v>
+        <v>14987400</v>
       </c>
       <c r="F76" s="3">
-        <v>14054800</v>
+        <v>13416000</v>
       </c>
       <c r="G76" s="3">
-        <v>13420900</v>
+        <v>12810900</v>
       </c>
       <c r="H76" s="3">
-        <v>12765900</v>
+        <v>12185700</v>
       </c>
       <c r="I76" s="3">
-        <v>11838100</v>
+        <v>11300000</v>
       </c>
       <c r="J76" s="3">
-        <v>10432200</v>
+        <v>9958000</v>
       </c>
       <c r="K76" s="3">
         <v>10495700</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2738600</v>
+        <v>2614200</v>
       </c>
       <c r="E81" s="3">
-        <v>2273000</v>
+        <v>2169700</v>
       </c>
       <c r="F81" s="3">
-        <v>1460000</v>
+        <v>1393700</v>
       </c>
       <c r="G81" s="3">
-        <v>1321600</v>
+        <v>1261500</v>
       </c>
       <c r="H81" s="3">
-        <v>1570200</v>
+        <v>1498800</v>
       </c>
       <c r="I81" s="3">
-        <v>1434900</v>
+        <v>1369700</v>
       </c>
       <c r="J81" s="3">
-        <v>1013500</v>
+        <v>967400</v>
       </c>
       <c r="K81" s="3">
         <v>1451100</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2890200</v>
+        <v>2727900</v>
       </c>
       <c r="E83" s="3">
-        <v>2857800</v>
+        <v>2577600</v>
       </c>
       <c r="F83" s="3">
-        <v>2700300</v>
+        <v>2514500</v>
       </c>
       <c r="G83" s="3">
-        <v>2634300</v>
+        <v>2429200</v>
       </c>
       <c r="H83" s="3">
-        <v>2544800</v>
+        <v>2377000</v>
       </c>
       <c r="I83" s="3">
-        <v>2490200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2299500</v>
+        <v>2194900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="3">
         <v>2234400</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3812700</v>
+        <v>3238900</v>
       </c>
       <c r="E89" s="3">
-        <v>3393100</v>
+        <v>3564300</v>
       </c>
       <c r="F89" s="3">
-        <v>3734000</v>
+        <v>3173600</v>
       </c>
       <c r="G89" s="3">
-        <v>3324800</v>
+        <v>3089000</v>
       </c>
       <c r="H89" s="3">
-        <v>3236100</v>
+        <v>2989200</v>
       </c>
       <c r="I89" s="3">
-        <v>3131500</v>
+        <v>3359700</v>
       </c>
       <c r="J89" s="3">
-        <v>3519700</v>
+        <v>5297400</v>
       </c>
       <c r="K89" s="3">
         <v>5675800</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2457300</v>
+        <v>-2281300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2390000</v>
+        <v>-2092000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2191600</v>
+        <v>-2082200</v>
       </c>
       <c r="G91" s="3">
-        <v>-2181300</v>
+        <v>-2526700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2647100</v>
+        <v>-2418500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2533600</v>
+        <v>-2851400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2987100</v>
+        <v>-2559300</v>
       </c>
       <c r="K91" s="3">
         <v>-3280800</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3562000</v>
+        <v>-2579300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2702100</v>
+        <v>-2068300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2166700</v>
+        <v>-2419600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2534800</v>
+        <v>-3093900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3241200</v>
+        <v>-2105400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2205700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-4672400</v>
+        <v>-4460100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K94" s="3">
         <v>-3815200</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-621400</v>
+        <v>-593100</v>
       </c>
       <c r="E96" s="3">
-        <v>-621400</v>
+        <v>-593100</v>
       </c>
       <c r="F96" s="3">
-        <v>-621400</v>
+        <v>-561500</v>
       </c>
       <c r="G96" s="3">
-        <v>-588300</v>
+        <v>-560100</v>
       </c>
       <c r="H96" s="3">
-        <v>-586800</v>
+        <v>-551000</v>
       </c>
       <c r="I96" s="3">
-        <v>-577200</v>
+        <v>-550300</v>
       </c>
       <c r="J96" s="3">
-        <v>-576500</v>
+        <v>-561400</v>
       </c>
       <c r="K96" s="3">
         <v>-601500</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3215,90 +3180,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-209700</v>
+        <v>-694400</v>
       </c>
       <c r="E100" s="3">
-        <v>-727400</v>
+        <v>-877700</v>
       </c>
       <c r="F100" s="3">
-        <v>-919400</v>
+        <v>-810200</v>
       </c>
       <c r="G100" s="3">
-        <v>-848800</v>
+        <v>-469900</v>
       </c>
       <c r="H100" s="3">
-        <v>-492300</v>
+        <v>-481500</v>
       </c>
       <c r="I100" s="3">
-        <v>-504400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>515000</v>
+        <v>491600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>-971400</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>-5100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5400</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>-400</v>
       </c>
       <c r="I101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
         <v>3000</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43100</v>
+        <v>-39900</v>
       </c>
       <c r="E102" s="3">
-        <v>-41800</v>
+        <v>618500</v>
       </c>
       <c r="F102" s="3">
-        <v>648000</v>
+        <v>-55000</v>
       </c>
       <c r="G102" s="3">
-        <v>-57600</v>
+        <v>-473900</v>
       </c>
       <c r="H102" s="3">
-        <v>-496500</v>
+        <v>402000</v>
       </c>
       <c r="I102" s="3">
-        <v>421100</v>
+        <v>-613800</v>
       </c>
       <c r="J102" s="3">
-        <v>-643000</v>
+        <v>832800</v>
       </c>
       <c r="K102" s="3">
         <v>892300</v>
